--- a/web_ces/Paneles/global_mensual/input/Clasificador.xlsx
+++ b/web_ces/Paneles/global_mensual/input/Clasificador.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bcsfcomar.sharepoint.com/sites/grp_ces/Documentos compartidos/CicSFE_sp/_Reportes rmd/Panel global mensual/Archivos necesarios/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bcsfcomar.sharepoint.com/sites/grp_ces/Documentos compartidos/CicSFE_sp/_Reportes rmd/Paneles/global_mensual/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="84" documentId="13_ncr:1_{AE31E10D-B244-4C2E-AB12-701A12E75CCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1FD01F7A-8B7A-4024-BD52-9B48602BCB4B}"/>
+  <xr:revisionPtr revIDLastSave="96" documentId="13_ncr:1_{AE31E10D-B244-4C2E-AB12-701A12E75CCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C11D5263-7CAD-4F5A-A935-20A95B13BA3D}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="98">
   <si>
     <t>GLO-BARC</t>
   </si>
@@ -319,6 +319,12 @@
   </si>
   <si>
     <t>SFE-XMOI</t>
+  </si>
+  <si>
+    <t>SFE-MAQE</t>
+  </si>
+  <si>
+    <t>SFE-QUIM</t>
   </si>
 </sst>
 </file>
@@ -666,10 +672,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDE90077-526C-476E-8E02-5A4A95323A88}">
-  <dimension ref="A1:B82"/>
+  <dimension ref="A1:B84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="D70" sqref="D70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1172,23 +1178,23 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>44</v>
+        <v>96</v>
       </c>
       <c r="B63" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>45</v>
+        <v>97</v>
       </c>
       <c r="B64" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B65" t="s">
         <v>66</v>
@@ -1196,7 +1202,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B66" t="s">
         <v>66</v>
@@ -1204,23 +1210,23 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B67" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B68" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B69" t="s">
         <v>75</v>
@@ -1228,7 +1234,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B70" t="s">
         <v>75</v>
@@ -1236,7 +1242,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B71" t="s">
         <v>75</v>
@@ -1244,7 +1250,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B72" t="s">
         <v>75</v>
@@ -1252,7 +1258,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B73" t="s">
         <v>75</v>
@@ -1260,7 +1266,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B74" t="s">
         <v>75</v>
@@ -1268,23 +1274,23 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B75" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B76" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B77" t="s">
         <v>76</v>
@@ -1292,7 +1298,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B78" t="s">
         <v>76</v>
@@ -1300,23 +1306,23 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B79" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B80" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B81" t="s">
         <v>77</v>
@@ -1324,15 +1330,31 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B82" t="s">
         <v>77</v>
       </c>
     </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>62</v>
+      </c>
+      <c r="B83" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>63</v>
+      </c>
+      <c r="B84" t="s">
+        <v>77</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B2:B82">
+  <conditionalFormatting sqref="B2:B84">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -1347,6 +1369,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="359b39ce-e1f9-4933-8424-33b611e6fdcd" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b5dd4176-d247-4204-85b8-921214f3ccea">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100C5B9F2161CEE1040BBC03CB11300495F" ma:contentTypeVersion="12" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="126bfeb7ae601119bfc9c37fe78f3e1b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b5dd4176-d247-4204-85b8-921214f3ccea" xmlns:ns3="359b39ce-e1f9-4933-8424-33b611e6fdcd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2137ec74e9b380cd6ab08453deebfc43" ns2:_="" ns3:_="">
     <xsd:import namespace="b5dd4176-d247-4204-85b8-921214f3ccea"/>
@@ -1547,31 +1589,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="359b39ce-e1f9-4933-8424-33b611e6fdcd" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b5dd4176-d247-4204-85b8-921214f3ccea">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5D6A2DEE-1191-4E28-A0F6-81292B6B98D4}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B87CBDA-2902-42FF-8470-019638D1DF4F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -1579,7 +1597,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9CD5967-B573-48AA-87E4-4B27E0AE32FC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -1588,4 +1606,23 @@
     <ds:schemaRef ds:uri="b5dd4176-d247-4204-85b8-921214f3ccea"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5D6A2DEE-1191-4E28-A0F6-81292B6B98D4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="b5dd4176-d247-4204-85b8-921214f3ccea"/>
+    <ds:schemaRef ds:uri="359b39ce-e1f9-4933-8424-33b611e6fdcd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/web_ces/Paneles/global_mensual/input/Clasificador.xlsx
+++ b/web_ces/Paneles/global_mensual/input/Clasificador.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bcsfcomar.sharepoint.com/sites/grp_ces/Documentos compartidos/CicSFE_sp/_Reportes rmd/Paneles/global_mensual/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="96" documentId="13_ncr:1_{AE31E10D-B244-4C2E-AB12-701A12E75CCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C11D5263-7CAD-4F5A-A935-20A95B13BA3D}"/>
+  <xr:revisionPtr revIDLastSave="107" documentId="13_ncr:1_{AE31E10D-B244-4C2E-AB12-701A12E75CCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{100CBDD9-842C-4946-84B0-5E20F652C349}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -674,8 +674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDE90077-526C-476E-8E02-5A4A95323A88}">
   <dimension ref="A1:B84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="D70" sqref="D70"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -706,10 +706,10 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -722,7 +722,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
         <v>69</v>
@@ -730,7 +730,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
         <v>69</v>
@@ -738,7 +738,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
         <v>69</v>
@@ -746,15 +746,15 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B10" t="s">
         <v>69</v>
@@ -762,7 +762,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B11" t="s">
         <v>69</v>
@@ -770,7 +770,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>86</v>
       </c>
       <c r="B12" t="s">
         <v>70</v>
@@ -778,7 +778,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
         <v>70</v>
@@ -786,7 +786,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>87</v>
       </c>
       <c r="B14" t="s">
         <v>70</v>
@@ -794,7 +794,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
         <v>70</v>
@@ -802,7 +802,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>82</v>
+        <v>11</v>
       </c>
       <c r="B16" t="s">
         <v>70</v>
@@ -810,7 +810,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="B17" t="s">
         <v>70</v>
@@ -818,7 +818,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B18" t="s">
         <v>70</v>
@@ -826,7 +826,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B19" t="s">
         <v>70</v>
@@ -834,7 +834,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B20" t="s">
         <v>70</v>
@@ -842,7 +842,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B21" t="s">
         <v>70</v>
@@ -850,7 +850,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B22" t="s">
         <v>70</v>
@@ -858,7 +858,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B23" t="s">
         <v>71</v>
@@ -866,7 +866,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>88</v>
+        <v>14</v>
       </c>
       <c r="B24" t="s">
         <v>71</v>
@@ -874,7 +874,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="B25" t="s">
         <v>71</v>
@@ -882,7 +882,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B26" t="s">
         <v>71</v>
@@ -890,7 +890,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B27" t="s">
         <v>71</v>
@@ -898,7 +898,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B28" t="s">
         <v>71</v>
@@ -914,7 +914,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B30" t="s">
         <v>72</v>
@@ -930,7 +930,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>22</v>
+        <v>93</v>
       </c>
       <c r="B32" t="s">
         <v>72</v>
@@ -938,7 +938,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="B33" t="s">
         <v>72</v>
@@ -970,7 +970,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B37" t="s">
         <v>73</v>
@@ -978,7 +978,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B38" t="s">
         <v>73</v>
@@ -1002,7 +1002,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="B41" t="s">
         <v>73</v>
@@ -1010,7 +1010,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>81</v>
+        <v>24</v>
       </c>
       <c r="B42" t="s">
         <v>73</v>
@@ -1074,7 +1074,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>35</v>
+        <v>89</v>
       </c>
       <c r="B50" t="s">
         <v>65</v>
@@ -1082,7 +1082,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B51" t="s">
         <v>65</v>
@@ -1090,7 +1090,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>37</v>
+        <v>90</v>
       </c>
       <c r="B52" t="s">
         <v>65</v>
@@ -1098,7 +1098,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="B53" t="s">
         <v>65</v>
@@ -1106,7 +1106,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>91</v>
+        <v>36</v>
       </c>
       <c r="B54" t="s">
         <v>65</v>
@@ -1114,7 +1114,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="B55" t="s">
         <v>65</v>
@@ -1122,7 +1122,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>39</v>
+        <v>91</v>
       </c>
       <c r="B56" t="s">
         <v>65</v>
@@ -1130,7 +1130,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B57" t="s">
         <v>65</v>
@@ -1138,7 +1138,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="B58" t="s">
         <v>65</v>
@@ -1146,7 +1146,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>90</v>
+        <v>43</v>
       </c>
       <c r="B59" t="s">
         <v>65</v>
@@ -1154,7 +1154,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>41</v>
+        <v>96</v>
       </c>
       <c r="B60" t="s">
         <v>65</v>
@@ -1162,7 +1162,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B61" t="s">
         <v>65</v>
@@ -1170,7 +1170,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B62" t="s">
         <v>65</v>
@@ -1178,7 +1178,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B63" t="s">
         <v>65</v>
@@ -1186,7 +1186,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>97</v>
+        <v>35</v>
       </c>
       <c r="B64" t="s">
         <v>65</v>
@@ -1194,7 +1194,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B65" t="s">
         <v>66</v>
@@ -1202,7 +1202,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B66" t="s">
         <v>66</v>
@@ -1210,7 +1210,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B67" t="s">
         <v>66</v>
@@ -1242,7 +1242,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B71" t="s">
         <v>75</v>
@@ -1250,7 +1250,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B72" t="s">
         <v>75</v>
@@ -1258,7 +1258,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B73" t="s">
         <v>75</v>
@@ -1266,7 +1266,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B74" t="s">
         <v>75</v>
@@ -1282,7 +1282,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B76" t="s">
         <v>75</v>
@@ -1290,7 +1290,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B77" t="s">
         <v>76</v>
@@ -1298,7 +1298,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B78" t="s">
         <v>76</v>
@@ -1306,7 +1306,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B79" t="s">
         <v>76</v>
@@ -1314,7 +1314,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B80" t="s">
         <v>76</v>
@@ -1338,7 +1338,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B83" t="s">
         <v>77</v>
@@ -1346,13 +1346,16 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B84" t="s">
         <v>77</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A81:B84">
+    <sortCondition ref="A81:A84"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:B84">
     <cfRule type="colorScale" priority="2">
@@ -1369,26 +1372,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="359b39ce-e1f9-4933-8424-33b611e6fdcd" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b5dd4176-d247-4204-85b8-921214f3ccea">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100C5B9F2161CEE1040BBC03CB11300495F" ma:contentTypeVersion="12" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="126bfeb7ae601119bfc9c37fe78f3e1b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b5dd4176-d247-4204-85b8-921214f3ccea" xmlns:ns3="359b39ce-e1f9-4933-8424-33b611e6fdcd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2137ec74e9b380cd6ab08453deebfc43" ns2:_="" ns3:_="">
     <xsd:import namespace="b5dd4176-d247-4204-85b8-921214f3ccea"/>
@@ -1589,10 +1572,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="359b39ce-e1f9-4933-8424-33b611e6fdcd" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b5dd4176-d247-4204-85b8-921214f3ccea">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B87CBDA-2902-42FF-8470-019638D1DF4F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5D6A2DEE-1191-4E28-A0F6-81292B6B98D4}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="b5dd4176-d247-4204-85b8-921214f3ccea"/>
+    <ds:schemaRef ds:uri="359b39ce-e1f9-4933-8424-33b611e6fdcd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1609,20 +1623,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5D6A2DEE-1191-4E28-A0F6-81292B6B98D4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B87CBDA-2902-42FF-8470-019638D1DF4F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="b5dd4176-d247-4204-85b8-921214f3ccea"/>
-    <ds:schemaRef ds:uri="359b39ce-e1f9-4933-8424-33b611e6fdcd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>